--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H2">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.903188829232482</v>
+        <v>3.259471333333333</v>
       </c>
       <c r="N2">
-        <v>0.903188829232482</v>
+        <v>9.778414</v>
       </c>
       <c r="O2">
-        <v>0.8842272043268795</v>
+        <v>0.8750813810021594</v>
       </c>
       <c r="P2">
-        <v>0.8842272043268795</v>
+        <v>0.8750813810021593</v>
       </c>
       <c r="Q2">
-        <v>40.25597364435671</v>
+        <v>165.0487764534409</v>
       </c>
       <c r="R2">
-        <v>40.25597364435671</v>
+        <v>1485.438988080968</v>
       </c>
       <c r="S2">
-        <v>0.1666534665558936</v>
+        <v>0.1757293102850956</v>
       </c>
       <c r="T2">
-        <v>0.1666534665558936</v>
+        <v>0.1757293102850955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H3">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.118255461118251</v>
+        <v>0.1088336666666667</v>
       </c>
       <c r="N3">
-        <v>0.118255461118251</v>
+        <v>0.326501</v>
       </c>
       <c r="O3">
-        <v>0.1157727956731205</v>
+        <v>0.02921894552415003</v>
       </c>
       <c r="P3">
-        <v>0.1157727956731205</v>
+        <v>0.02921894552415003</v>
       </c>
       <c r="Q3">
-        <v>5.270756869438877</v>
+        <v>5.510974536445778</v>
       </c>
       <c r="R3">
-        <v>5.270756869438877</v>
+        <v>49.59877082801199</v>
       </c>
       <c r="S3">
-        <v>0.02182011324394872</v>
+        <v>0.005867597295164019</v>
       </c>
       <c r="T3">
-        <v>0.02182011324394872</v>
+        <v>0.005867597295164018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.3186687363547</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H4">
-        <v>67.3186687363547</v>
+        <v>151.910012</v>
       </c>
       <c r="I4">
-        <v>0.284665096766035</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J4">
-        <v>0.284665096766035</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.903188829232482</v>
+        <v>0.02652833333333333</v>
       </c>
       <c r="N4">
-        <v>0.903188829232482</v>
+        <v>0.07958499999999999</v>
       </c>
       <c r="O4">
-        <v>0.8842272043268795</v>
+        <v>0.007122152090007321</v>
       </c>
       <c r="P4">
-        <v>0.8842272043268795</v>
+        <v>0.00712215209000732</v>
       </c>
       <c r="Q4">
-        <v>60.80146960147749</v>
+        <v>1.343306478335555</v>
       </c>
       <c r="R4">
-        <v>60.80146960147749</v>
+        <v>12.08975830502</v>
       </c>
       <c r="S4">
-        <v>0.2517086226828718</v>
+        <v>0.001430233692195823</v>
       </c>
       <c r="T4">
-        <v>0.2517086226828718</v>
+        <v>0.001430233692195823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.3186687363547</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H5">
-        <v>67.3186687363547</v>
+        <v>151.910012</v>
       </c>
       <c r="I5">
-        <v>0.284665096766035</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J5">
-        <v>0.284665096766035</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.118255461118251</v>
+        <v>0.3299303333333334</v>
       </c>
       <c r="N5">
-        <v>0.118255461118251</v>
+        <v>0.9897910000000001</v>
       </c>
       <c r="O5">
-        <v>0.1157727956731205</v>
+        <v>0.08857752138368333</v>
       </c>
       <c r="P5">
-        <v>0.1157727956731205</v>
+        <v>0.08857752138368331</v>
       </c>
       <c r="Q5">
-        <v>7.960800213284411</v>
+        <v>16.70657363194356</v>
       </c>
       <c r="R5">
-        <v>7.960800213284411</v>
+        <v>150.359162687492</v>
       </c>
       <c r="S5">
-        <v>0.03295647408316325</v>
+        <v>0.01778767904042466</v>
       </c>
       <c r="T5">
-        <v>0.03295647408316325</v>
+        <v>0.01778767904042465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.6949317203161</v>
+        <v>67.324</v>
       </c>
       <c r="H6">
-        <v>62.6949317203161</v>
+        <v>201.972</v>
       </c>
       <c r="I6">
-        <v>0.265113068037628</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J6">
-        <v>0.265113068037628</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.903188829232482</v>
+        <v>3.259471333333333</v>
       </c>
       <c r="N6">
-        <v>0.903188829232482</v>
+        <v>9.778414</v>
       </c>
       <c r="O6">
-        <v>0.8842272043268795</v>
+        <v>0.8750813810021594</v>
       </c>
       <c r="P6">
-        <v>0.8842272043268795</v>
+        <v>0.8750813810021593</v>
       </c>
       <c r="Q6">
-        <v>56.62536197928269</v>
+        <v>219.4406480453333</v>
       </c>
       <c r="R6">
-        <v>56.62536197928269</v>
+        <v>1974.965832408</v>
       </c>
       <c r="S6">
-        <v>0.2344201869814336</v>
+        <v>0.2336409548628126</v>
       </c>
       <c r="T6">
-        <v>0.2344201869814336</v>
+        <v>0.2336409548628125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.6949317203161</v>
+        <v>67.324</v>
       </c>
       <c r="H7">
-        <v>62.6949317203161</v>
+        <v>201.972</v>
       </c>
       <c r="I7">
-        <v>0.265113068037628</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J7">
-        <v>0.265113068037628</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.118255461118251</v>
+        <v>0.1088336666666667</v>
       </c>
       <c r="N7">
-        <v>0.118255461118251</v>
+        <v>0.326501</v>
       </c>
       <c r="O7">
-        <v>0.1157727956731205</v>
+        <v>0.02921894552415003</v>
       </c>
       <c r="P7">
-        <v>0.1157727956731205</v>
+        <v>0.02921894552415003</v>
       </c>
       <c r="Q7">
-        <v>7.414018060363242</v>
+        <v>7.327117774666666</v>
       </c>
       <c r="R7">
-        <v>7.414018060363242</v>
+        <v>65.94405997200001</v>
       </c>
       <c r="S7">
-        <v>0.0306928810561944</v>
+        <v>0.007801265665747345</v>
       </c>
       <c r="T7">
-        <v>0.0306928810561944</v>
+        <v>0.007801265665747345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.8992082188342</v>
+        <v>67.324</v>
       </c>
       <c r="H8">
-        <v>61.8992082188342</v>
+        <v>201.972</v>
       </c>
       <c r="I8">
-        <v>0.2617482553964947</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J8">
-        <v>0.2617482553964947</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.903188829232482</v>
+        <v>0.02652833333333333</v>
       </c>
       <c r="N8">
-        <v>0.903188829232482</v>
+        <v>0.07958499999999999</v>
       </c>
       <c r="O8">
-        <v>0.8842272043268795</v>
+        <v>0.007122152090007321</v>
       </c>
       <c r="P8">
-        <v>0.8842272043268795</v>
+        <v>0.00712215209000732</v>
       </c>
       <c r="Q8">
-        <v>55.90667340158649</v>
+        <v>1.785993513333333</v>
       </c>
       <c r="R8">
-        <v>55.90667340158649</v>
+        <v>16.07394162</v>
       </c>
       <c r="S8">
-        <v>0.2314449281066805</v>
+        <v>0.001901567615439164</v>
       </c>
       <c r="T8">
-        <v>0.2314449281066805</v>
+        <v>0.001901567615439164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.8992082188342</v>
+        <v>67.324</v>
       </c>
       <c r="H9">
-        <v>61.8992082188342</v>
+        <v>201.972</v>
       </c>
       <c r="I9">
-        <v>0.2617482553964947</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J9">
-        <v>0.2617482553964947</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118255461118251</v>
+        <v>0.3299303333333334</v>
       </c>
       <c r="N9">
-        <v>0.118255461118251</v>
+        <v>0.9897910000000001</v>
       </c>
       <c r="O9">
-        <v>0.1157727956731205</v>
+        <v>0.08857752138368333</v>
       </c>
       <c r="P9">
-        <v>0.1157727956731205</v>
+        <v>0.08857752138368331</v>
       </c>
       <c r="Q9">
-        <v>7.31991941077287</v>
+        <v>22.21222976133334</v>
       </c>
       <c r="R9">
-        <v>7.31991941077287</v>
+        <v>199.910067852</v>
       </c>
       <c r="S9">
-        <v>0.03030332728981414</v>
+        <v>0.02364961376708105</v>
       </c>
       <c r="T9">
-        <v>0.03030332728981414</v>
+        <v>0.02364961376708105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>71.72398199999999</v>
+      </c>
+      <c r="H10">
+        <v>215.171946</v>
+      </c>
+      <c r="I10">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="J10">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.259471333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.778414</v>
+      </c>
+      <c r="O10">
+        <v>0.8750813810021594</v>
+      </c>
+      <c r="P10">
+        <v>0.8750813810021593</v>
+      </c>
+      <c r="Q10">
+        <v>233.782263241516</v>
+      </c>
+      <c r="R10">
+        <v>2104.040369173644</v>
+      </c>
+      <c r="S10">
+        <v>0.2489106357471805</v>
+      </c>
+      <c r="T10">
+        <v>0.2489106357471805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>71.72398199999999</v>
+      </c>
+      <c r="H11">
+        <v>215.171946</v>
+      </c>
+      <c r="I11">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="J11">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1088336666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.326501</v>
+      </c>
+      <c r="O11">
+        <v>0.02921894552415003</v>
+      </c>
+      <c r="P11">
+        <v>0.02921894552415003</v>
+      </c>
+      <c r="Q11">
+        <v>7.805983948993998</v>
+      </c>
+      <c r="R11">
+        <v>70.25385554094599</v>
+      </c>
+      <c r="S11">
+        <v>0.008311119930296484</v>
+      </c>
+      <c r="T11">
+        <v>0.008311119930296484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>71.72398199999999</v>
+      </c>
+      <c r="H12">
+        <v>215.171946</v>
+      </c>
+      <c r="I12">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="J12">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.02652833333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.07958499999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.007122152090007321</v>
+      </c>
+      <c r="P12">
+        <v>0.00712215209000732</v>
+      </c>
+      <c r="Q12">
+        <v>1.90271770249</v>
+      </c>
+      <c r="R12">
+        <v>17.12445932241</v>
+      </c>
+      <c r="S12">
+        <v>0.002025845187771694</v>
+      </c>
+      <c r="T12">
+        <v>0.002025845187771693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>71.72398199999999</v>
+      </c>
+      <c r="H13">
+        <v>215.171946</v>
+      </c>
+      <c r="I13">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="J13">
+        <v>0.2844428428612245</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3299303333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.9897910000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.08857752138368333</v>
+      </c>
+      <c r="P13">
+        <v>0.08857752138368331</v>
+      </c>
+      <c r="Q13">
+        <v>23.663917289254</v>
+      </c>
+      <c r="R13">
+        <v>212.975255603286</v>
+      </c>
+      <c r="S13">
+        <v>0.02519524199597578</v>
+      </c>
+      <c r="T13">
+        <v>0.02519524199597578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>62.47139133333334</v>
+      </c>
+      <c r="H14">
+        <v>187.414174</v>
+      </c>
+      <c r="I14">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="J14">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.259471333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.778414</v>
+      </c>
+      <c r="O14">
+        <v>0.8750813810021594</v>
+      </c>
+      <c r="P14">
+        <v>0.8750813810021593</v>
+      </c>
+      <c r="Q14">
+        <v>203.6237092044485</v>
+      </c>
+      <c r="R14">
+        <v>1832.613382840036</v>
+      </c>
+      <c r="S14">
+        <v>0.2168004801070708</v>
+      </c>
+      <c r="T14">
+        <v>0.2168004801070708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>62.47139133333334</v>
+      </c>
+      <c r="H15">
+        <v>187.414174</v>
+      </c>
+      <c r="I15">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="J15">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1088336666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.326501</v>
+      </c>
+      <c r="O15">
+        <v>0.02921894552415003</v>
+      </c>
+      <c r="P15">
+        <v>0.02921894552415003</v>
+      </c>
+      <c r="Q15">
+        <v>6.798990580574889</v>
+      </c>
+      <c r="R15">
+        <v>61.190915225174</v>
+      </c>
+      <c r="S15">
+        <v>0.007238962632942185</v>
+      </c>
+      <c r="T15">
+        <v>0.007238962632942184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>62.47139133333334</v>
+      </c>
+      <c r="H16">
+        <v>187.414174</v>
+      </c>
+      <c r="I16">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="J16">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.02652833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.07958499999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.007122152090007321</v>
+      </c>
+      <c r="P16">
+        <v>0.00712215209000732</v>
+      </c>
+      <c r="Q16">
+        <v>1.657261893087778</v>
+      </c>
+      <c r="R16">
+        <v>14.91535703779</v>
+      </c>
+      <c r="S16">
+        <v>0.001764505594600641</v>
+      </c>
+      <c r="T16">
+        <v>0.00176450559460064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>62.47139133333334</v>
+      </c>
+      <c r="H17">
+        <v>187.414174</v>
+      </c>
+      <c r="I17">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="J17">
+        <v>0.2477489349148154</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3299303333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.9897910000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08857752138368333</v>
+      </c>
+      <c r="P17">
+        <v>0.08857752138368331</v>
+      </c>
+      <c r="Q17">
+        <v>20.61120696640378</v>
+      </c>
+      <c r="R17">
+        <v>185.500862697634</v>
+      </c>
+      <c r="S17">
+        <v>0.02194498658020183</v>
+      </c>
+      <c r="T17">
+        <v>0.02194498658020183</v>
       </c>
     </row>
   </sheetData>
